--- a/excel_sheets/Video_metadata.xlsx
+++ b/excel_sheets/Video_metadata.xlsx
@@ -500,7 +500,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>video type metadata version 20240812.1</t>
+          <t>video type metadata version 0.1.0</t>
         </is>
       </c>
       <c r="D1" s="2" t="n"/>

--- a/excel_sheets/Video_metadata.xlsx
+++ b/excel_sheets/Video_metadata.xlsx
@@ -488,7 +488,6 @@
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="24" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3445,9 +3444,7 @@
       <c r="C80" s="5" t="n">
         <v/>
       </c>
-      <c r="D80" s="6" t="n">
-        <v/>
-      </c>
+      <c r="D80" s="6" t="n"/>
       <c r="E80" s="6" t="n"/>
       <c r="F80" s="6" t="n"/>
       <c r="G80" s="6" t="n"/>
@@ -3979,9 +3976,7 @@
       <c r="C94" s="5" t="n">
         <v/>
       </c>
-      <c r="D94" s="6" t="n">
-        <v/>
-      </c>
+      <c r="D94" s="6" t="n"/>
       <c r="E94" s="6" t="n"/>
       <c r="F94" s="6" t="n"/>
       <c r="G94" s="6" t="n"/>
@@ -4808,10 +4803,8 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C117" s="5" t="n">
-        <v/>
-      </c>
-      <c r="D117" s="6" t="inlineStr"/>
+      <c r="C117" s="6" t="inlineStr"/>
+      <c r="D117" s="6" t="n"/>
       <c r="E117" s="6" t="n"/>
       <c r="F117" s="6" t="n"/>
       <c r="G117" s="6" t="n"/>
@@ -4846,9 +4839,7 @@
           <t>description</t>
         </is>
       </c>
-      <c r="C118" s="5" t="n">
-        <v/>
-      </c>
+      <c r="C118" s="6" t="n"/>
       <c r="D118" s="6" t="n"/>
       <c r="E118" s="6" t="n"/>
       <c r="F118" s="6" t="n"/>
@@ -4884,9 +4875,7 @@
           <t>date</t>
         </is>
       </c>
-      <c r="C119" s="5" t="n">
-        <v/>
-      </c>
+      <c r="C119" s="6" t="n"/>
       <c r="D119" s="6" t="n"/>
       <c r="E119" s="6" t="n"/>
       <c r="F119" s="6" t="n"/>
@@ -4922,8 +4911,12 @@
           <t>vector</t>
         </is>
       </c>
-      <c r="C120" s="7" t="inlineStr"/>
-      <c r="D120" s="6" t="inlineStr"/>
+      <c r="C120" s="6" t="inlineStr">
+        <is>
+          <t>[""]</t>
+        </is>
+      </c>
+      <c r="D120" s="6" t="n"/>
       <c r="E120" s="6" t="n"/>
       <c r="F120" s="6" t="n"/>
       <c r="G120" s="6" t="n"/>
@@ -4954,7 +4947,7 @@
     <row r="121">
       <c r="A121" s="4" t="n"/>
       <c r="B121" s="8" t="n"/>
-      <c r="C121" s="8" t="n"/>
+      <c r="C121" s="2" t="n"/>
       <c r="D121" s="2" t="n"/>
       <c r="E121" s="2" t="n"/>
       <c r="F121" s="2" t="n"/>

--- a/excel_sheets/Video_metadata.xlsx
+++ b/excel_sheets/Video_metadata.xlsx
@@ -477,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD151"/>
+  <dimension ref="A1:AD141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4613,368 +4613,324 @@
       <c r="AD111" s="2" t="n"/>
     </row>
     <row r="112">
-      <c r="A112" s="9" t="inlineStr">
-        <is>
-          <t>lda_topics</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="n"/>
-      <c r="C112" s="2" t="n"/>
-      <c r="D112" s="2" t="n"/>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-      <c r="H112" s="2" t="n"/>
-      <c r="I112" s="2" t="n"/>
-      <c r="J112" s="2" t="n"/>
-      <c r="K112" s="2" t="n"/>
-      <c r="L112" s="2" t="n"/>
-      <c r="M112" s="2" t="n"/>
-      <c r="N112" s="2" t="n"/>
-      <c r="O112" s="2" t="n"/>
-      <c r="P112" s="2" t="n"/>
-      <c r="Q112" s="2" t="n"/>
-      <c r="R112" s="2" t="n"/>
-      <c r="S112" s="2" t="n"/>
-      <c r="T112" s="2" t="n"/>
-      <c r="U112" s="2" t="n"/>
-      <c r="V112" s="2" t="n"/>
-      <c r="W112" s="2" t="n"/>
-      <c r="X112" s="2" t="n"/>
-      <c r="Y112" s="2" t="n"/>
-      <c r="Z112" s="2" t="n"/>
-      <c r="AA112" s="2" t="n"/>
-      <c r="AB112" s="2" t="n"/>
-      <c r="AC112" s="2" t="n"/>
-      <c r="AD112" s="2" t="n"/>
+      <c r="A112" s="4" t="n"/>
+      <c r="B112" s="4" t="n"/>
+      <c r="C112" s="4" t="n"/>
+      <c r="D112" s="4" t="n"/>
+      <c r="E112" s="4" t="n"/>
+      <c r="F112" s="4" t="n"/>
+      <c r="G112" s="4" t="n"/>
+      <c r="H112" s="4" t="n"/>
+      <c r="I112" s="4" t="n"/>
+      <c r="J112" s="4" t="n"/>
+      <c r="K112" s="4" t="n"/>
+      <c r="L112" s="4" t="n"/>
+      <c r="M112" s="4" t="n"/>
+      <c r="N112" s="4" t="n"/>
+      <c r="O112" s="4" t="n"/>
+      <c r="P112" s="4" t="n"/>
+      <c r="Q112" s="4" t="n"/>
+      <c r="R112" s="4" t="n"/>
+      <c r="S112" s="4" t="n"/>
+      <c r="T112" s="4" t="n"/>
+      <c r="U112" s="4" t="n"/>
+      <c r="V112" s="4" t="n"/>
+      <c r="W112" s="4" t="n"/>
+      <c r="X112" s="4" t="n"/>
+      <c r="Y112" s="4" t="n"/>
+      <c r="Z112" s="4" t="n"/>
+      <c r="AA112" s="4" t="n"/>
+      <c r="AB112" s="4" t="n"/>
+      <c r="AC112" s="4" t="n"/>
+      <c r="AD112" s="4" t="n"/>
     </row>
     <row r="113">
-      <c r="A113" s="4" t="inlineStr"/>
-      <c r="B113" s="5" t="inlineStr">
-        <is>
-          <t>model_info</t>
-        </is>
-      </c>
-      <c r="C113" s="6" t="inlineStr">
-        <is>
-          <t>[{"source": null, "author": null, "version": null, "model_id": null, "nb_topics": null, "description": null, "corpus": null, "uri": null}]</t>
-        </is>
-      </c>
-      <c r="D113" s="6" t="n"/>
-      <c r="E113" s="6" t="n"/>
-      <c r="F113" s="6" t="n"/>
-      <c r="G113" s="6" t="n"/>
-      <c r="H113" s="6" t="n"/>
-      <c r="I113" s="6" t="n"/>
-      <c r="J113" s="6" t="n"/>
-      <c r="K113" s="6" t="n"/>
-      <c r="L113" s="6" t="n"/>
-      <c r="M113" s="6" t="n"/>
-      <c r="N113" s="6" t="n"/>
-      <c r="O113" s="6" t="n"/>
-      <c r="P113" s="6" t="n"/>
-      <c r="Q113" s="6" t="n"/>
-      <c r="R113" s="6" t="n"/>
-      <c r="S113" s="6" t="n"/>
-      <c r="T113" s="6" t="n"/>
-      <c r="U113" s="6" t="n"/>
-      <c r="V113" s="6" t="n"/>
-      <c r="W113" s="6" t="n"/>
-      <c r="X113" s="6" t="n"/>
-      <c r="Y113" s="6" t="n"/>
-      <c r="Z113" s="6" t="n"/>
-      <c r="AA113" s="6" t="n"/>
-      <c r="AB113" s="6" t="n"/>
-      <c r="AC113" s="6" t="n"/>
-      <c r="AD113" s="6" t="n"/>
+      <c r="A113" s="4" t="n"/>
+      <c r="B113" s="4" t="n"/>
+      <c r="C113" s="4" t="n"/>
+      <c r="D113" s="4" t="n"/>
+      <c r="E113" s="4" t="n"/>
+      <c r="F113" s="4" t="n"/>
+      <c r="G113" s="4" t="n"/>
+      <c r="H113" s="4" t="n"/>
+      <c r="I113" s="4" t="n"/>
+      <c r="J113" s="4" t="n"/>
+      <c r="K113" s="4" t="n"/>
+      <c r="L113" s="4" t="n"/>
+      <c r="M113" s="4" t="n"/>
+      <c r="N113" s="4" t="n"/>
+      <c r="O113" s="4" t="n"/>
+      <c r="P113" s="4" t="n"/>
+      <c r="Q113" s="4" t="n"/>
+      <c r="R113" s="4" t="n"/>
+      <c r="S113" s="4" t="n"/>
+      <c r="T113" s="4" t="n"/>
+      <c r="U113" s="4" t="n"/>
+      <c r="V113" s="4" t="n"/>
+      <c r="W113" s="4" t="n"/>
+      <c r="X113" s="4" t="n"/>
+      <c r="Y113" s="4" t="n"/>
+      <c r="Z113" s="4" t="n"/>
+      <c r="AA113" s="4" t="n"/>
+      <c r="AB113" s="4" t="n"/>
+      <c r="AC113" s="4" t="n"/>
+      <c r="AD113" s="4" t="n"/>
     </row>
     <row r="114">
-      <c r="A114" s="4" t="inlineStr"/>
-      <c r="B114" s="5" t="inlineStr">
-        <is>
-          <t>topic_description</t>
-        </is>
-      </c>
-      <c r="C114" s="6" t="inlineStr">
-        <is>
-          <t>[{"topic_id": null, "topic_score": null, "topic_label": null, "topic_words": [{"word": null, "word_weight": null}]}]</t>
-        </is>
-      </c>
-      <c r="D114" s="6" t="n"/>
-      <c r="E114" s="6" t="n"/>
-      <c r="F114" s="6" t="n"/>
-      <c r="G114" s="6" t="n"/>
-      <c r="H114" s="6" t="n"/>
-      <c r="I114" s="6" t="n"/>
-      <c r="J114" s="6" t="n"/>
-      <c r="K114" s="6" t="n"/>
-      <c r="L114" s="6" t="n"/>
-      <c r="M114" s="6" t="n"/>
-      <c r="N114" s="6" t="n"/>
-      <c r="O114" s="6" t="n"/>
-      <c r="P114" s="6" t="n"/>
-      <c r="Q114" s="6" t="n"/>
-      <c r="R114" s="6" t="n"/>
-      <c r="S114" s="6" t="n"/>
-      <c r="T114" s="6" t="n"/>
-      <c r="U114" s="6" t="n"/>
-      <c r="V114" s="6" t="n"/>
-      <c r="W114" s="6" t="n"/>
-      <c r="X114" s="6" t="n"/>
-      <c r="Y114" s="6" t="n"/>
-      <c r="Z114" s="6" t="n"/>
-      <c r="AA114" s="6" t="n"/>
-      <c r="AB114" s="6" t="n"/>
-      <c r="AC114" s="6" t="n"/>
-      <c r="AD114" s="6" t="n"/>
+      <c r="A114" s="4" t="n"/>
+      <c r="B114" s="4" t="n"/>
+      <c r="C114" s="4" t="n"/>
+      <c r="D114" s="4" t="n"/>
+      <c r="E114" s="4" t="n"/>
+      <c r="F114" s="4" t="n"/>
+      <c r="G114" s="4" t="n"/>
+      <c r="H114" s="4" t="n"/>
+      <c r="I114" s="4" t="n"/>
+      <c r="J114" s="4" t="n"/>
+      <c r="K114" s="4" t="n"/>
+      <c r="L114" s="4" t="n"/>
+      <c r="M114" s="4" t="n"/>
+      <c r="N114" s="4" t="n"/>
+      <c r="O114" s="4" t="n"/>
+      <c r="P114" s="4" t="n"/>
+      <c r="Q114" s="4" t="n"/>
+      <c r="R114" s="4" t="n"/>
+      <c r="S114" s="4" t="n"/>
+      <c r="T114" s="4" t="n"/>
+      <c r="U114" s="4" t="n"/>
+      <c r="V114" s="4" t="n"/>
+      <c r="W114" s="4" t="n"/>
+      <c r="X114" s="4" t="n"/>
+      <c r="Y114" s="4" t="n"/>
+      <c r="Z114" s="4" t="n"/>
+      <c r="AA114" s="4" t="n"/>
+      <c r="AB114" s="4" t="n"/>
+      <c r="AC114" s="4" t="n"/>
+      <c r="AD114" s="4" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="4" t="n"/>
-      <c r="B115" s="8" t="n"/>
-      <c r="C115" s="2" t="n"/>
-      <c r="D115" s="2" t="n"/>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-      <c r="H115" s="2" t="n"/>
-      <c r="I115" s="2" t="n"/>
-      <c r="J115" s="2" t="n"/>
-      <c r="K115" s="2" t="n"/>
-      <c r="L115" s="2" t="n"/>
-      <c r="M115" s="2" t="n"/>
-      <c r="N115" s="2" t="n"/>
-      <c r="O115" s="2" t="n"/>
-      <c r="P115" s="2" t="n"/>
-      <c r="Q115" s="2" t="n"/>
-      <c r="R115" s="2" t="n"/>
-      <c r="S115" s="2" t="n"/>
-      <c r="T115" s="2" t="n"/>
-      <c r="U115" s="2" t="n"/>
-      <c r="V115" s="2" t="n"/>
-      <c r="W115" s="2" t="n"/>
-      <c r="X115" s="2" t="n"/>
-      <c r="Y115" s="2" t="n"/>
-      <c r="Z115" s="2" t="n"/>
-      <c r="AA115" s="2" t="n"/>
-      <c r="AB115" s="2" t="n"/>
-      <c r="AC115" s="2" t="n"/>
-      <c r="AD115" s="2" t="n"/>
+      <c r="B115" s="4" t="n"/>
+      <c r="C115" s="4" t="n"/>
+      <c r="D115" s="4" t="n"/>
+      <c r="E115" s="4" t="n"/>
+      <c r="F115" s="4" t="n"/>
+      <c r="G115" s="4" t="n"/>
+      <c r="H115" s="4" t="n"/>
+      <c r="I115" s="4" t="n"/>
+      <c r="J115" s="4" t="n"/>
+      <c r="K115" s="4" t="n"/>
+      <c r="L115" s="4" t="n"/>
+      <c r="M115" s="4" t="n"/>
+      <c r="N115" s="4" t="n"/>
+      <c r="O115" s="4" t="n"/>
+      <c r="P115" s="4" t="n"/>
+      <c r="Q115" s="4" t="n"/>
+      <c r="R115" s="4" t="n"/>
+      <c r="S115" s="4" t="n"/>
+      <c r="T115" s="4" t="n"/>
+      <c r="U115" s="4" t="n"/>
+      <c r="V115" s="4" t="n"/>
+      <c r="W115" s="4" t="n"/>
+      <c r="X115" s="4" t="n"/>
+      <c r="Y115" s="4" t="n"/>
+      <c r="Z115" s="4" t="n"/>
+      <c r="AA115" s="4" t="n"/>
+      <c r="AB115" s="4" t="n"/>
+      <c r="AC115" s="4" t="n"/>
+      <c r="AD115" s="4" t="n"/>
     </row>
     <row r="116">
-      <c r="A116" s="9" t="inlineStr">
-        <is>
-          <t>embeddings</t>
-        </is>
-      </c>
-      <c r="B116" s="2" t="n"/>
-      <c r="C116" s="2" t="n"/>
-      <c r="D116" s="2" t="n"/>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-      <c r="H116" s="2" t="n"/>
-      <c r="I116" s="2" t="n"/>
-      <c r="J116" s="2" t="n"/>
-      <c r="K116" s="2" t="n"/>
-      <c r="L116" s="2" t="n"/>
-      <c r="M116" s="2" t="n"/>
-      <c r="N116" s="2" t="n"/>
-      <c r="O116" s="2" t="n"/>
-      <c r="P116" s="2" t="n"/>
-      <c r="Q116" s="2" t="n"/>
-      <c r="R116" s="2" t="n"/>
-      <c r="S116" s="2" t="n"/>
-      <c r="T116" s="2" t="n"/>
-      <c r="U116" s="2" t="n"/>
-      <c r="V116" s="2" t="n"/>
-      <c r="W116" s="2" t="n"/>
-      <c r="X116" s="2" t="n"/>
-      <c r="Y116" s="2" t="n"/>
-      <c r="Z116" s="2" t="n"/>
-      <c r="AA116" s="2" t="n"/>
-      <c r="AB116" s="2" t="n"/>
-      <c r="AC116" s="2" t="n"/>
-      <c r="AD116" s="2" t="n"/>
+      <c r="A116" s="4" t="n"/>
+      <c r="B116" s="4" t="n"/>
+      <c r="C116" s="4" t="n"/>
+      <c r="D116" s="4" t="n"/>
+      <c r="E116" s="4" t="n"/>
+      <c r="F116" s="4" t="n"/>
+      <c r="G116" s="4" t="n"/>
+      <c r="H116" s="4" t="n"/>
+      <c r="I116" s="4" t="n"/>
+      <c r="J116" s="4" t="n"/>
+      <c r="K116" s="4" t="n"/>
+      <c r="L116" s="4" t="n"/>
+      <c r="M116" s="4" t="n"/>
+      <c r="N116" s="4" t="n"/>
+      <c r="O116" s="4" t="n"/>
+      <c r="P116" s="4" t="n"/>
+      <c r="Q116" s="4" t="n"/>
+      <c r="R116" s="4" t="n"/>
+      <c r="S116" s="4" t="n"/>
+      <c r="T116" s="4" t="n"/>
+      <c r="U116" s="4" t="n"/>
+      <c r="V116" s="4" t="n"/>
+      <c r="W116" s="4" t="n"/>
+      <c r="X116" s="4" t="n"/>
+      <c r="Y116" s="4" t="n"/>
+      <c r="Z116" s="4" t="n"/>
+      <c r="AA116" s="4" t="n"/>
+      <c r="AB116" s="4" t="n"/>
+      <c r="AC116" s="4" t="n"/>
+      <c r="AD116" s="4" t="n"/>
     </row>
     <row r="117">
-      <c r="A117" s="4" t="inlineStr"/>
-      <c r="B117" s="5" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C117" s="6" t="inlineStr"/>
-      <c r="D117" s="6" t="n"/>
-      <c r="E117" s="6" t="n"/>
-      <c r="F117" s="6" t="n"/>
-      <c r="G117" s="6" t="n"/>
-      <c r="H117" s="6" t="n"/>
-      <c r="I117" s="6" t="n"/>
-      <c r="J117" s="6" t="n"/>
-      <c r="K117" s="6" t="n"/>
-      <c r="L117" s="6" t="n"/>
-      <c r="M117" s="6" t="n"/>
-      <c r="N117" s="6" t="n"/>
-      <c r="O117" s="6" t="n"/>
-      <c r="P117" s="6" t="n"/>
-      <c r="Q117" s="6" t="n"/>
-      <c r="R117" s="6" t="n"/>
-      <c r="S117" s="6" t="n"/>
-      <c r="T117" s="6" t="n"/>
-      <c r="U117" s="6" t="n"/>
-      <c r="V117" s="6" t="n"/>
-      <c r="W117" s="6" t="n"/>
-      <c r="X117" s="6" t="n"/>
-      <c r="Y117" s="6" t="n"/>
-      <c r="Z117" s="6" t="n"/>
-      <c r="AA117" s="6" t="n"/>
-      <c r="AB117" s="6" t="n"/>
-      <c r="AC117" s="6" t="n"/>
-      <c r="AD117" s="6" t="n"/>
+      <c r="A117" s="4" t="n"/>
+      <c r="B117" s="4" t="n"/>
+      <c r="C117" s="4" t="n"/>
+      <c r="D117" s="4" t="n"/>
+      <c r="E117" s="4" t="n"/>
+      <c r="F117" s="4" t="n"/>
+      <c r="G117" s="4" t="n"/>
+      <c r="H117" s="4" t="n"/>
+      <c r="I117" s="4" t="n"/>
+      <c r="J117" s="4" t="n"/>
+      <c r="K117" s="4" t="n"/>
+      <c r="L117" s="4" t="n"/>
+      <c r="M117" s="4" t="n"/>
+      <c r="N117" s="4" t="n"/>
+      <c r="O117" s="4" t="n"/>
+      <c r="P117" s="4" t="n"/>
+      <c r="Q117" s="4" t="n"/>
+      <c r="R117" s="4" t="n"/>
+      <c r="S117" s="4" t="n"/>
+      <c r="T117" s="4" t="n"/>
+      <c r="U117" s="4" t="n"/>
+      <c r="V117" s="4" t="n"/>
+      <c r="W117" s="4" t="n"/>
+      <c r="X117" s="4" t="n"/>
+      <c r="Y117" s="4" t="n"/>
+      <c r="Z117" s="4" t="n"/>
+      <c r="AA117" s="4" t="n"/>
+      <c r="AB117" s="4" t="n"/>
+      <c r="AC117" s="4" t="n"/>
+      <c r="AD117" s="4" t="n"/>
     </row>
     <row r="118">
-      <c r="A118" s="4" t="inlineStr"/>
-      <c r="B118" s="5" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C118" s="6" t="n"/>
-      <c r="D118" s="6" t="n"/>
-      <c r="E118" s="6" t="n"/>
-      <c r="F118" s="6" t="n"/>
-      <c r="G118" s="6" t="n"/>
-      <c r="H118" s="6" t="n"/>
-      <c r="I118" s="6" t="n"/>
-      <c r="J118" s="6" t="n"/>
-      <c r="K118" s="6" t="n"/>
-      <c r="L118" s="6" t="n"/>
-      <c r="M118" s="6" t="n"/>
-      <c r="N118" s="6" t="n"/>
-      <c r="O118" s="6" t="n"/>
-      <c r="P118" s="6" t="n"/>
-      <c r="Q118" s="6" t="n"/>
-      <c r="R118" s="6" t="n"/>
-      <c r="S118" s="6" t="n"/>
-      <c r="T118" s="6" t="n"/>
-      <c r="U118" s="6" t="n"/>
-      <c r="V118" s="6" t="n"/>
-      <c r="W118" s="6" t="n"/>
-      <c r="X118" s="6" t="n"/>
-      <c r="Y118" s="6" t="n"/>
-      <c r="Z118" s="6" t="n"/>
-      <c r="AA118" s="6" t="n"/>
-      <c r="AB118" s="6" t="n"/>
-      <c r="AC118" s="6" t="n"/>
-      <c r="AD118" s="6" t="n"/>
+      <c r="A118" s="4" t="n"/>
+      <c r="B118" s="4" t="n"/>
+      <c r="C118" s="4" t="n"/>
+      <c r="D118" s="4" t="n"/>
+      <c r="E118" s="4" t="n"/>
+      <c r="F118" s="4" t="n"/>
+      <c r="G118" s="4" t="n"/>
+      <c r="H118" s="4" t="n"/>
+      <c r="I118" s="4" t="n"/>
+      <c r="J118" s="4" t="n"/>
+      <c r="K118" s="4" t="n"/>
+      <c r="L118" s="4" t="n"/>
+      <c r="M118" s="4" t="n"/>
+      <c r="N118" s="4" t="n"/>
+      <c r="O118" s="4" t="n"/>
+      <c r="P118" s="4" t="n"/>
+      <c r="Q118" s="4" t="n"/>
+      <c r="R118" s="4" t="n"/>
+      <c r="S118" s="4" t="n"/>
+      <c r="T118" s="4" t="n"/>
+      <c r="U118" s="4" t="n"/>
+      <c r="V118" s="4" t="n"/>
+      <c r="W118" s="4" t="n"/>
+      <c r="X118" s="4" t="n"/>
+      <c r="Y118" s="4" t="n"/>
+      <c r="Z118" s="4" t="n"/>
+      <c r="AA118" s="4" t="n"/>
+      <c r="AB118" s="4" t="n"/>
+      <c r="AC118" s="4" t="n"/>
+      <c r="AD118" s="4" t="n"/>
     </row>
     <row r="119">
-      <c r="A119" s="4" t="inlineStr"/>
-      <c r="B119" s="5" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C119" s="6" t="n"/>
-      <c r="D119" s="6" t="n"/>
-      <c r="E119" s="6" t="n"/>
-      <c r="F119" s="6" t="n"/>
-      <c r="G119" s="6" t="n"/>
-      <c r="H119" s="6" t="n"/>
-      <c r="I119" s="6" t="n"/>
-      <c r="J119" s="6" t="n"/>
-      <c r="K119" s="6" t="n"/>
-      <c r="L119" s="6" t="n"/>
-      <c r="M119" s="6" t="n"/>
-      <c r="N119" s="6" t="n"/>
-      <c r="O119" s="6" t="n"/>
-      <c r="P119" s="6" t="n"/>
-      <c r="Q119" s="6" t="n"/>
-      <c r="R119" s="6" t="n"/>
-      <c r="S119" s="6" t="n"/>
-      <c r="T119" s="6" t="n"/>
-      <c r="U119" s="6" t="n"/>
-      <c r="V119" s="6" t="n"/>
-      <c r="W119" s="6" t="n"/>
-      <c r="X119" s="6" t="n"/>
-      <c r="Y119" s="6" t="n"/>
-      <c r="Z119" s="6" t="n"/>
-      <c r="AA119" s="6" t="n"/>
-      <c r="AB119" s="6" t="n"/>
-      <c r="AC119" s="6" t="n"/>
-      <c r="AD119" s="6" t="n"/>
+      <c r="A119" s="4" t="n"/>
+      <c r="B119" s="4" t="n"/>
+      <c r="C119" s="4" t="n"/>
+      <c r="D119" s="4" t="n"/>
+      <c r="E119" s="4" t="n"/>
+      <c r="F119" s="4" t="n"/>
+      <c r="G119" s="4" t="n"/>
+      <c r="H119" s="4" t="n"/>
+      <c r="I119" s="4" t="n"/>
+      <c r="J119" s="4" t="n"/>
+      <c r="K119" s="4" t="n"/>
+      <c r="L119" s="4" t="n"/>
+      <c r="M119" s="4" t="n"/>
+      <c r="N119" s="4" t="n"/>
+      <c r="O119" s="4" t="n"/>
+      <c r="P119" s="4" t="n"/>
+      <c r="Q119" s="4" t="n"/>
+      <c r="R119" s="4" t="n"/>
+      <c r="S119" s="4" t="n"/>
+      <c r="T119" s="4" t="n"/>
+      <c r="U119" s="4" t="n"/>
+      <c r="V119" s="4" t="n"/>
+      <c r="W119" s="4" t="n"/>
+      <c r="X119" s="4" t="n"/>
+      <c r="Y119" s="4" t="n"/>
+      <c r="Z119" s="4" t="n"/>
+      <c r="AA119" s="4" t="n"/>
+      <c r="AB119" s="4" t="n"/>
+      <c r="AC119" s="4" t="n"/>
+      <c r="AD119" s="4" t="n"/>
     </row>
     <row r="120">
-      <c r="A120" s="4" t="inlineStr"/>
-      <c r="B120" s="5" t="inlineStr">
-        <is>
-          <t>vector</t>
-        </is>
-      </c>
-      <c r="C120" s="6" t="inlineStr">
-        <is>
-          <t>[""]</t>
-        </is>
-      </c>
-      <c r="D120" s="6" t="n"/>
-      <c r="E120" s="6" t="n"/>
-      <c r="F120" s="6" t="n"/>
-      <c r="G120" s="6" t="n"/>
-      <c r="H120" s="6" t="n"/>
-      <c r="I120" s="6" t="n"/>
-      <c r="J120" s="6" t="n"/>
-      <c r="K120" s="6" t="n"/>
-      <c r="L120" s="6" t="n"/>
-      <c r="M120" s="6" t="n"/>
-      <c r="N120" s="6" t="n"/>
-      <c r="O120" s="6" t="n"/>
-      <c r="P120" s="6" t="n"/>
-      <c r="Q120" s="6" t="n"/>
-      <c r="R120" s="6" t="n"/>
-      <c r="S120" s="6" t="n"/>
-      <c r="T120" s="6" t="n"/>
-      <c r="U120" s="6" t="n"/>
-      <c r="V120" s="6" t="n"/>
-      <c r="W120" s="6" t="n"/>
-      <c r="X120" s="6" t="n"/>
-      <c r="Y120" s="6" t="n"/>
-      <c r="Z120" s="6" t="n"/>
-      <c r="AA120" s="6" t="n"/>
-      <c r="AB120" s="6" t="n"/>
-      <c r="AC120" s="6" t="n"/>
-      <c r="AD120" s="6" t="n"/>
+      <c r="A120" s="4" t="n"/>
+      <c r="B120" s="4" t="n"/>
+      <c r="C120" s="4" t="n"/>
+      <c r="D120" s="4" t="n"/>
+      <c r="E120" s="4" t="n"/>
+      <c r="F120" s="4" t="n"/>
+      <c r="G120" s="4" t="n"/>
+      <c r="H120" s="4" t="n"/>
+      <c r="I120" s="4" t="n"/>
+      <c r="J120" s="4" t="n"/>
+      <c r="K120" s="4" t="n"/>
+      <c r="L120" s="4" t="n"/>
+      <c r="M120" s="4" t="n"/>
+      <c r="N120" s="4" t="n"/>
+      <c r="O120" s="4" t="n"/>
+      <c r="P120" s="4" t="n"/>
+      <c r="Q120" s="4" t="n"/>
+      <c r="R120" s="4" t="n"/>
+      <c r="S120" s="4" t="n"/>
+      <c r="T120" s="4" t="n"/>
+      <c r="U120" s="4" t="n"/>
+      <c r="V120" s="4" t="n"/>
+      <c r="W120" s="4" t="n"/>
+      <c r="X120" s="4" t="n"/>
+      <c r="Y120" s="4" t="n"/>
+      <c r="Z120" s="4" t="n"/>
+      <c r="AA120" s="4" t="n"/>
+      <c r="AB120" s="4" t="n"/>
+      <c r="AC120" s="4" t="n"/>
+      <c r="AD120" s="4" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="4" t="n"/>
-      <c r="B121" s="8" t="n"/>
-      <c r="C121" s="2" t="n"/>
-      <c r="D121" s="2" t="n"/>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-      <c r="H121" s="2" t="n"/>
-      <c r="I121" s="2" t="n"/>
-      <c r="J121" s="2" t="n"/>
-      <c r="K121" s="2" t="n"/>
-      <c r="L121" s="2" t="n"/>
-      <c r="M121" s="2" t="n"/>
-      <c r="N121" s="2" t="n"/>
-      <c r="O121" s="2" t="n"/>
-      <c r="P121" s="2" t="n"/>
-      <c r="Q121" s="2" t="n"/>
-      <c r="R121" s="2" t="n"/>
-      <c r="S121" s="2" t="n"/>
-      <c r="T121" s="2" t="n"/>
-      <c r="U121" s="2" t="n"/>
-      <c r="V121" s="2" t="n"/>
-      <c r="W121" s="2" t="n"/>
-      <c r="X121" s="2" t="n"/>
-      <c r="Y121" s="2" t="n"/>
-      <c r="Z121" s="2" t="n"/>
-      <c r="AA121" s="2" t="n"/>
-      <c r="AB121" s="2" t="n"/>
-      <c r="AC121" s="2" t="n"/>
-      <c r="AD121" s="2" t="n"/>
+      <c r="B121" s="4" t="n"/>
+      <c r="C121" s="4" t="n"/>
+      <c r="D121" s="4" t="n"/>
+      <c r="E121" s="4" t="n"/>
+      <c r="F121" s="4" t="n"/>
+      <c r="G121" s="4" t="n"/>
+      <c r="H121" s="4" t="n"/>
+      <c r="I121" s="4" t="n"/>
+      <c r="J121" s="4" t="n"/>
+      <c r="K121" s="4" t="n"/>
+      <c r="L121" s="4" t="n"/>
+      <c r="M121" s="4" t="n"/>
+      <c r="N121" s="4" t="n"/>
+      <c r="O121" s="4" t="n"/>
+      <c r="P121" s="4" t="n"/>
+      <c r="Q121" s="4" t="n"/>
+      <c r="R121" s="4" t="n"/>
+      <c r="S121" s="4" t="n"/>
+      <c r="T121" s="4" t="n"/>
+      <c r="U121" s="4" t="n"/>
+      <c r="V121" s="4" t="n"/>
+      <c r="W121" s="4" t="n"/>
+      <c r="X121" s="4" t="n"/>
+      <c r="Y121" s="4" t="n"/>
+      <c r="Z121" s="4" t="n"/>
+      <c r="AA121" s="4" t="n"/>
+      <c r="AB121" s="4" t="n"/>
+      <c r="AC121" s="4" t="n"/>
+      <c r="AD121" s="4" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="4" t="n"/>
@@ -5616,326 +5572,6 @@
       <c r="AC141" s="4" t="n"/>
       <c r="AD141" s="4" t="n"/>
     </row>
-    <row r="142">
-      <c r="A142" s="4" t="n"/>
-      <c r="B142" s="4" t="n"/>
-      <c r="C142" s="4" t="n"/>
-      <c r="D142" s="4" t="n"/>
-      <c r="E142" s="4" t="n"/>
-      <c r="F142" s="4" t="n"/>
-      <c r="G142" s="4" t="n"/>
-      <c r="H142" s="4" t="n"/>
-      <c r="I142" s="4" t="n"/>
-      <c r="J142" s="4" t="n"/>
-      <c r="K142" s="4" t="n"/>
-      <c r="L142" s="4" t="n"/>
-      <c r="M142" s="4" t="n"/>
-      <c r="N142" s="4" t="n"/>
-      <c r="O142" s="4" t="n"/>
-      <c r="P142" s="4" t="n"/>
-      <c r="Q142" s="4" t="n"/>
-      <c r="R142" s="4" t="n"/>
-      <c r="S142" s="4" t="n"/>
-      <c r="T142" s="4" t="n"/>
-      <c r="U142" s="4" t="n"/>
-      <c r="V142" s="4" t="n"/>
-      <c r="W142" s="4" t="n"/>
-      <c r="X142" s="4" t="n"/>
-      <c r="Y142" s="4" t="n"/>
-      <c r="Z142" s="4" t="n"/>
-      <c r="AA142" s="4" t="n"/>
-      <c r="AB142" s="4" t="n"/>
-      <c r="AC142" s="4" t="n"/>
-      <c r="AD142" s="4" t="n"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="4" t="n"/>
-      <c r="B143" s="4" t="n"/>
-      <c r="C143" s="4" t="n"/>
-      <c r="D143" s="4" t="n"/>
-      <c r="E143" s="4" t="n"/>
-      <c r="F143" s="4" t="n"/>
-      <c r="G143" s="4" t="n"/>
-      <c r="H143" s="4" t="n"/>
-      <c r="I143" s="4" t="n"/>
-      <c r="J143" s="4" t="n"/>
-      <c r="K143" s="4" t="n"/>
-      <c r="L143" s="4" t="n"/>
-      <c r="M143" s="4" t="n"/>
-      <c r="N143" s="4" t="n"/>
-      <c r="O143" s="4" t="n"/>
-      <c r="P143" s="4" t="n"/>
-      <c r="Q143" s="4" t="n"/>
-      <c r="R143" s="4" t="n"/>
-      <c r="S143" s="4" t="n"/>
-      <c r="T143" s="4" t="n"/>
-      <c r="U143" s="4" t="n"/>
-      <c r="V143" s="4" t="n"/>
-      <c r="W143" s="4" t="n"/>
-      <c r="X143" s="4" t="n"/>
-      <c r="Y143" s="4" t="n"/>
-      <c r="Z143" s="4" t="n"/>
-      <c r="AA143" s="4" t="n"/>
-      <c r="AB143" s="4" t="n"/>
-      <c r="AC143" s="4" t="n"/>
-      <c r="AD143" s="4" t="n"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="4" t="n"/>
-      <c r="B144" s="4" t="n"/>
-      <c r="C144" s="4" t="n"/>
-      <c r="D144" s="4" t="n"/>
-      <c r="E144" s="4" t="n"/>
-      <c r="F144" s="4" t="n"/>
-      <c r="G144" s="4" t="n"/>
-      <c r="H144" s="4" t="n"/>
-      <c r="I144" s="4" t="n"/>
-      <c r="J144" s="4" t="n"/>
-      <c r="K144" s="4" t="n"/>
-      <c r="L144" s="4" t="n"/>
-      <c r="M144" s="4" t="n"/>
-      <c r="N144" s="4" t="n"/>
-      <c r="O144" s="4" t="n"/>
-      <c r="P144" s="4" t="n"/>
-      <c r="Q144" s="4" t="n"/>
-      <c r="R144" s="4" t="n"/>
-      <c r="S144" s="4" t="n"/>
-      <c r="T144" s="4" t="n"/>
-      <c r="U144" s="4" t="n"/>
-      <c r="V144" s="4" t="n"/>
-      <c r="W144" s="4" t="n"/>
-      <c r="X144" s="4" t="n"/>
-      <c r="Y144" s="4" t="n"/>
-      <c r="Z144" s="4" t="n"/>
-      <c r="AA144" s="4" t="n"/>
-      <c r="AB144" s="4" t="n"/>
-      <c r="AC144" s="4" t="n"/>
-      <c r="AD144" s="4" t="n"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="4" t="n"/>
-      <c r="B145" s="4" t="n"/>
-      <c r="C145" s="4" t="n"/>
-      <c r="D145" s="4" t="n"/>
-      <c r="E145" s="4" t="n"/>
-      <c r="F145" s="4" t="n"/>
-      <c r="G145" s="4" t="n"/>
-      <c r="H145" s="4" t="n"/>
-      <c r="I145" s="4" t="n"/>
-      <c r="J145" s="4" t="n"/>
-      <c r="K145" s="4" t="n"/>
-      <c r="L145" s="4" t="n"/>
-      <c r="M145" s="4" t="n"/>
-      <c r="N145" s="4" t="n"/>
-      <c r="O145" s="4" t="n"/>
-      <c r="P145" s="4" t="n"/>
-      <c r="Q145" s="4" t="n"/>
-      <c r="R145" s="4" t="n"/>
-      <c r="S145" s="4" t="n"/>
-      <c r="T145" s="4" t="n"/>
-      <c r="U145" s="4" t="n"/>
-      <c r="V145" s="4" t="n"/>
-      <c r="W145" s="4" t="n"/>
-      <c r="X145" s="4" t="n"/>
-      <c r="Y145" s="4" t="n"/>
-      <c r="Z145" s="4" t="n"/>
-      <c r="AA145" s="4" t="n"/>
-      <c r="AB145" s="4" t="n"/>
-      <c r="AC145" s="4" t="n"/>
-      <c r="AD145" s="4" t="n"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="4" t="n"/>
-      <c r="B146" s="4" t="n"/>
-      <c r="C146" s="4" t="n"/>
-      <c r="D146" s="4" t="n"/>
-      <c r="E146" s="4" t="n"/>
-      <c r="F146" s="4" t="n"/>
-      <c r="G146" s="4" t="n"/>
-      <c r="H146" s="4" t="n"/>
-      <c r="I146" s="4" t="n"/>
-      <c r="J146" s="4" t="n"/>
-      <c r="K146" s="4" t="n"/>
-      <c r="L146" s="4" t="n"/>
-      <c r="M146" s="4" t="n"/>
-      <c r="N146" s="4" t="n"/>
-      <c r="O146" s="4" t="n"/>
-      <c r="P146" s="4" t="n"/>
-      <c r="Q146" s="4" t="n"/>
-      <c r="R146" s="4" t="n"/>
-      <c r="S146" s="4" t="n"/>
-      <c r="T146" s="4" t="n"/>
-      <c r="U146" s="4" t="n"/>
-      <c r="V146" s="4" t="n"/>
-      <c r="W146" s="4" t="n"/>
-      <c r="X146" s="4" t="n"/>
-      <c r="Y146" s="4" t="n"/>
-      <c r="Z146" s="4" t="n"/>
-      <c r="AA146" s="4" t="n"/>
-      <c r="AB146" s="4" t="n"/>
-      <c r="AC146" s="4" t="n"/>
-      <c r="AD146" s="4" t="n"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="4" t="n"/>
-      <c r="B147" s="4" t="n"/>
-      <c r="C147" s="4" t="n"/>
-      <c r="D147" s="4" t="n"/>
-      <c r="E147" s="4" t="n"/>
-      <c r="F147" s="4" t="n"/>
-      <c r="G147" s="4" t="n"/>
-      <c r="H147" s="4" t="n"/>
-      <c r="I147" s="4" t="n"/>
-      <c r="J147" s="4" t="n"/>
-      <c r="K147" s="4" t="n"/>
-      <c r="L147" s="4" t="n"/>
-      <c r="M147" s="4" t="n"/>
-      <c r="N147" s="4" t="n"/>
-      <c r="O147" s="4" t="n"/>
-      <c r="P147" s="4" t="n"/>
-      <c r="Q147" s="4" t="n"/>
-      <c r="R147" s="4" t="n"/>
-      <c r="S147" s="4" t="n"/>
-      <c r="T147" s="4" t="n"/>
-      <c r="U147" s="4" t="n"/>
-      <c r="V147" s="4" t="n"/>
-      <c r="W147" s="4" t="n"/>
-      <c r="X147" s="4" t="n"/>
-      <c r="Y147" s="4" t="n"/>
-      <c r="Z147" s="4" t="n"/>
-      <c r="AA147" s="4" t="n"/>
-      <c r="AB147" s="4" t="n"/>
-      <c r="AC147" s="4" t="n"/>
-      <c r="AD147" s="4" t="n"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="4" t="n"/>
-      <c r="B148" s="4" t="n"/>
-      <c r="C148" s="4" t="n"/>
-      <c r="D148" s="4" t="n"/>
-      <c r="E148" s="4" t="n"/>
-      <c r="F148" s="4" t="n"/>
-      <c r="G148" s="4" t="n"/>
-      <c r="H148" s="4" t="n"/>
-      <c r="I148" s="4" t="n"/>
-      <c r="J148" s="4" t="n"/>
-      <c r="K148" s="4" t="n"/>
-      <c r="L148" s="4" t="n"/>
-      <c r="M148" s="4" t="n"/>
-      <c r="N148" s="4" t="n"/>
-      <c r="O148" s="4" t="n"/>
-      <c r="P148" s="4" t="n"/>
-      <c r="Q148" s="4" t="n"/>
-      <c r="R148" s="4" t="n"/>
-      <c r="S148" s="4" t="n"/>
-      <c r="T148" s="4" t="n"/>
-      <c r="U148" s="4" t="n"/>
-      <c r="V148" s="4" t="n"/>
-      <c r="W148" s="4" t="n"/>
-      <c r="X148" s="4" t="n"/>
-      <c r="Y148" s="4" t="n"/>
-      <c r="Z148" s="4" t="n"/>
-      <c r="AA148" s="4" t="n"/>
-      <c r="AB148" s="4" t="n"/>
-      <c r="AC148" s="4" t="n"/>
-      <c r="AD148" s="4" t="n"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="4" t="n"/>
-      <c r="B149" s="4" t="n"/>
-      <c r="C149" s="4" t="n"/>
-      <c r="D149" s="4" t="n"/>
-      <c r="E149" s="4" t="n"/>
-      <c r="F149" s="4" t="n"/>
-      <c r="G149" s="4" t="n"/>
-      <c r="H149" s="4" t="n"/>
-      <c r="I149" s="4" t="n"/>
-      <c r="J149" s="4" t="n"/>
-      <c r="K149" s="4" t="n"/>
-      <c r="L149" s="4" t="n"/>
-      <c r="M149" s="4" t="n"/>
-      <c r="N149" s="4" t="n"/>
-      <c r="O149" s="4" t="n"/>
-      <c r="P149" s="4" t="n"/>
-      <c r="Q149" s="4" t="n"/>
-      <c r="R149" s="4" t="n"/>
-      <c r="S149" s="4" t="n"/>
-      <c r="T149" s="4" t="n"/>
-      <c r="U149" s="4" t="n"/>
-      <c r="V149" s="4" t="n"/>
-      <c r="W149" s="4" t="n"/>
-      <c r="X149" s="4" t="n"/>
-      <c r="Y149" s="4" t="n"/>
-      <c r="Z149" s="4" t="n"/>
-      <c r="AA149" s="4" t="n"/>
-      <c r="AB149" s="4" t="n"/>
-      <c r="AC149" s="4" t="n"/>
-      <c r="AD149" s="4" t="n"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="4" t="n"/>
-      <c r="B150" s="4" t="n"/>
-      <c r="C150" s="4" t="n"/>
-      <c r="D150" s="4" t="n"/>
-      <c r="E150" s="4" t="n"/>
-      <c r="F150" s="4" t="n"/>
-      <c r="G150" s="4" t="n"/>
-      <c r="H150" s="4" t="n"/>
-      <c r="I150" s="4" t="n"/>
-      <c r="J150" s="4" t="n"/>
-      <c r="K150" s="4" t="n"/>
-      <c r="L150" s="4" t="n"/>
-      <c r="M150" s="4" t="n"/>
-      <c r="N150" s="4" t="n"/>
-      <c r="O150" s="4" t="n"/>
-      <c r="P150" s="4" t="n"/>
-      <c r="Q150" s="4" t="n"/>
-      <c r="R150" s="4" t="n"/>
-      <c r="S150" s="4" t="n"/>
-      <c r="T150" s="4" t="n"/>
-      <c r="U150" s="4" t="n"/>
-      <c r="V150" s="4" t="n"/>
-      <c r="W150" s="4" t="n"/>
-      <c r="X150" s="4" t="n"/>
-      <c r="Y150" s="4" t="n"/>
-      <c r="Z150" s="4" t="n"/>
-      <c r="AA150" s="4" t="n"/>
-      <c r="AB150" s="4" t="n"/>
-      <c r="AC150" s="4" t="n"/>
-      <c r="AD150" s="4" t="n"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="4" t="n"/>
-      <c r="B151" s="4" t="n"/>
-      <c r="C151" s="4" t="n"/>
-      <c r="D151" s="4" t="n"/>
-      <c r="E151" s="4" t="n"/>
-      <c r="F151" s="4" t="n"/>
-      <c r="G151" s="4" t="n"/>
-      <c r="H151" s="4" t="n"/>
-      <c r="I151" s="4" t="n"/>
-      <c r="J151" s="4" t="n"/>
-      <c r="K151" s="4" t="n"/>
-      <c r="L151" s="4" t="n"/>
-      <c r="M151" s="4" t="n"/>
-      <c r="N151" s="4" t="n"/>
-      <c r="O151" s="4" t="n"/>
-      <c r="P151" s="4" t="n"/>
-      <c r="Q151" s="4" t="n"/>
-      <c r="R151" s="4" t="n"/>
-      <c r="S151" s="4" t="n"/>
-      <c r="T151" s="4" t="n"/>
-      <c r="U151" s="4" t="n"/>
-      <c r="V151" s="4" t="n"/>
-      <c r="W151" s="4" t="n"/>
-      <c r="X151" s="4" t="n"/>
-      <c r="Y151" s="4" t="n"/>
-      <c r="Z151" s="4" t="n"/>
-      <c r="AA151" s="4" t="n"/>
-      <c r="AB151" s="4" t="n"/>
-      <c r="AC151" s="4" t="n"/>
-      <c r="AD151" s="4" t="n"/>
-    </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_sheets/Video_metadata.xlsx
+++ b/excel_sheets/Video_metadata.xlsx
@@ -477,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD151"/>
+  <dimension ref="A1:AD141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,6 @@
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="24" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3445,9 +3444,7 @@
       <c r="C80" s="5" t="n">
         <v/>
       </c>
-      <c r="D80" s="6" t="n">
-        <v/>
-      </c>
+      <c r="D80" s="6" t="n"/>
       <c r="E80" s="6" t="n"/>
       <c r="F80" s="6" t="n"/>
       <c r="G80" s="6" t="n"/>
@@ -3979,9 +3976,7 @@
       <c r="C94" s="5" t="n">
         <v/>
       </c>
-      <c r="D94" s="6" t="n">
-        <v/>
-      </c>
+      <c r="D94" s="6" t="n"/>
       <c r="E94" s="6" t="n"/>
       <c r="F94" s="6" t="n"/>
       <c r="G94" s="6" t="n"/>
@@ -4618,370 +4613,324 @@
       <c r="AD111" s="2" t="n"/>
     </row>
     <row r="112">
-      <c r="A112" s="9" t="inlineStr">
-        <is>
-          <t>lda_topics</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="n"/>
-      <c r="C112" s="2" t="n"/>
-      <c r="D112" s="2" t="n"/>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-      <c r="H112" s="2" t="n"/>
-      <c r="I112" s="2" t="n"/>
-      <c r="J112" s="2" t="n"/>
-      <c r="K112" s="2" t="n"/>
-      <c r="L112" s="2" t="n"/>
-      <c r="M112" s="2" t="n"/>
-      <c r="N112" s="2" t="n"/>
-      <c r="O112" s="2" t="n"/>
-      <c r="P112" s="2" t="n"/>
-      <c r="Q112" s="2" t="n"/>
-      <c r="R112" s="2" t="n"/>
-      <c r="S112" s="2" t="n"/>
-      <c r="T112" s="2" t="n"/>
-      <c r="U112" s="2" t="n"/>
-      <c r="V112" s="2" t="n"/>
-      <c r="W112" s="2" t="n"/>
-      <c r="X112" s="2" t="n"/>
-      <c r="Y112" s="2" t="n"/>
-      <c r="Z112" s="2" t="n"/>
-      <c r="AA112" s="2" t="n"/>
-      <c r="AB112" s="2" t="n"/>
-      <c r="AC112" s="2" t="n"/>
-      <c r="AD112" s="2" t="n"/>
+      <c r="A112" s="4" t="n"/>
+      <c r="B112" s="4" t="n"/>
+      <c r="C112" s="4" t="n"/>
+      <c r="D112" s="4" t="n"/>
+      <c r="E112" s="4" t="n"/>
+      <c r="F112" s="4" t="n"/>
+      <c r="G112" s="4" t="n"/>
+      <c r="H112" s="4" t="n"/>
+      <c r="I112" s="4" t="n"/>
+      <c r="J112" s="4" t="n"/>
+      <c r="K112" s="4" t="n"/>
+      <c r="L112" s="4" t="n"/>
+      <c r="M112" s="4" t="n"/>
+      <c r="N112" s="4" t="n"/>
+      <c r="O112" s="4" t="n"/>
+      <c r="P112" s="4" t="n"/>
+      <c r="Q112" s="4" t="n"/>
+      <c r="R112" s="4" t="n"/>
+      <c r="S112" s="4" t="n"/>
+      <c r="T112" s="4" t="n"/>
+      <c r="U112" s="4" t="n"/>
+      <c r="V112" s="4" t="n"/>
+      <c r="W112" s="4" t="n"/>
+      <c r="X112" s="4" t="n"/>
+      <c r="Y112" s="4" t="n"/>
+      <c r="Z112" s="4" t="n"/>
+      <c r="AA112" s="4" t="n"/>
+      <c r="AB112" s="4" t="n"/>
+      <c r="AC112" s="4" t="n"/>
+      <c r="AD112" s="4" t="n"/>
     </row>
     <row r="113">
-      <c r="A113" s="4" t="inlineStr"/>
-      <c r="B113" s="5" t="inlineStr">
-        <is>
-          <t>model_info</t>
-        </is>
-      </c>
-      <c r="C113" s="6" t="inlineStr">
-        <is>
-          <t>[{"source": null, "author": null, "version": null, "model_id": null, "nb_topics": null, "description": null, "corpus": null, "uri": null}]</t>
-        </is>
-      </c>
-      <c r="D113" s="6" t="n"/>
-      <c r="E113" s="6" t="n"/>
-      <c r="F113" s="6" t="n"/>
-      <c r="G113" s="6" t="n"/>
-      <c r="H113" s="6" t="n"/>
-      <c r="I113" s="6" t="n"/>
-      <c r="J113" s="6" t="n"/>
-      <c r="K113" s="6" t="n"/>
-      <c r="L113" s="6" t="n"/>
-      <c r="M113" s="6" t="n"/>
-      <c r="N113" s="6" t="n"/>
-      <c r="O113" s="6" t="n"/>
-      <c r="P113" s="6" t="n"/>
-      <c r="Q113" s="6" t="n"/>
-      <c r="R113" s="6" t="n"/>
-      <c r="S113" s="6" t="n"/>
-      <c r="T113" s="6" t="n"/>
-      <c r="U113" s="6" t="n"/>
-      <c r="V113" s="6" t="n"/>
-      <c r="W113" s="6" t="n"/>
-      <c r="X113" s="6" t="n"/>
-      <c r="Y113" s="6" t="n"/>
-      <c r="Z113" s="6" t="n"/>
-      <c r="AA113" s="6" t="n"/>
-      <c r="AB113" s="6" t="n"/>
-      <c r="AC113" s="6" t="n"/>
-      <c r="AD113" s="6" t="n"/>
+      <c r="A113" s="4" t="n"/>
+      <c r="B113" s="4" t="n"/>
+      <c r="C113" s="4" t="n"/>
+      <c r="D113" s="4" t="n"/>
+      <c r="E113" s="4" t="n"/>
+      <c r="F113" s="4" t="n"/>
+      <c r="G113" s="4" t="n"/>
+      <c r="H113" s="4" t="n"/>
+      <c r="I113" s="4" t="n"/>
+      <c r="J113" s="4" t="n"/>
+      <c r="K113" s="4" t="n"/>
+      <c r="L113" s="4" t="n"/>
+      <c r="M113" s="4" t="n"/>
+      <c r="N113" s="4" t="n"/>
+      <c r="O113" s="4" t="n"/>
+      <c r="P113" s="4" t="n"/>
+      <c r="Q113" s="4" t="n"/>
+      <c r="R113" s="4" t="n"/>
+      <c r="S113" s="4" t="n"/>
+      <c r="T113" s="4" t="n"/>
+      <c r="U113" s="4" t="n"/>
+      <c r="V113" s="4" t="n"/>
+      <c r="W113" s="4" t="n"/>
+      <c r="X113" s="4" t="n"/>
+      <c r="Y113" s="4" t="n"/>
+      <c r="Z113" s="4" t="n"/>
+      <c r="AA113" s="4" t="n"/>
+      <c r="AB113" s="4" t="n"/>
+      <c r="AC113" s="4" t="n"/>
+      <c r="AD113" s="4" t="n"/>
     </row>
     <row r="114">
-      <c r="A114" s="4" t="inlineStr"/>
-      <c r="B114" s="5" t="inlineStr">
-        <is>
-          <t>topic_description</t>
-        </is>
-      </c>
-      <c r="C114" s="6" t="inlineStr">
-        <is>
-          <t>[{"topic_id": null, "topic_score": null, "topic_label": null, "topic_words": [{"word": null, "word_weight": null}]}]</t>
-        </is>
-      </c>
-      <c r="D114" s="6" t="n"/>
-      <c r="E114" s="6" t="n"/>
-      <c r="F114" s="6" t="n"/>
-      <c r="G114" s="6" t="n"/>
-      <c r="H114" s="6" t="n"/>
-      <c r="I114" s="6" t="n"/>
-      <c r="J114" s="6" t="n"/>
-      <c r="K114" s="6" t="n"/>
-      <c r="L114" s="6" t="n"/>
-      <c r="M114" s="6" t="n"/>
-      <c r="N114" s="6" t="n"/>
-      <c r="O114" s="6" t="n"/>
-      <c r="P114" s="6" t="n"/>
-      <c r="Q114" s="6" t="n"/>
-      <c r="R114" s="6" t="n"/>
-      <c r="S114" s="6" t="n"/>
-      <c r="T114" s="6" t="n"/>
-      <c r="U114" s="6" t="n"/>
-      <c r="V114" s="6" t="n"/>
-      <c r="W114" s="6" t="n"/>
-      <c r="X114" s="6" t="n"/>
-      <c r="Y114" s="6" t="n"/>
-      <c r="Z114" s="6" t="n"/>
-      <c r="AA114" s="6" t="n"/>
-      <c r="AB114" s="6" t="n"/>
-      <c r="AC114" s="6" t="n"/>
-      <c r="AD114" s="6" t="n"/>
+      <c r="A114" s="4" t="n"/>
+      <c r="B114" s="4" t="n"/>
+      <c r="C114" s="4" t="n"/>
+      <c r="D114" s="4" t="n"/>
+      <c r="E114" s="4" t="n"/>
+      <c r="F114" s="4" t="n"/>
+      <c r="G114" s="4" t="n"/>
+      <c r="H114" s="4" t="n"/>
+      <c r="I114" s="4" t="n"/>
+      <c r="J114" s="4" t="n"/>
+      <c r="K114" s="4" t="n"/>
+      <c r="L114" s="4" t="n"/>
+      <c r="M114" s="4" t="n"/>
+      <c r="N114" s="4" t="n"/>
+      <c r="O114" s="4" t="n"/>
+      <c r="P114" s="4" t="n"/>
+      <c r="Q114" s="4" t="n"/>
+      <c r="R114" s="4" t="n"/>
+      <c r="S114" s="4" t="n"/>
+      <c r="T114" s="4" t="n"/>
+      <c r="U114" s="4" t="n"/>
+      <c r="V114" s="4" t="n"/>
+      <c r="W114" s="4" t="n"/>
+      <c r="X114" s="4" t="n"/>
+      <c r="Y114" s="4" t="n"/>
+      <c r="Z114" s="4" t="n"/>
+      <c r="AA114" s="4" t="n"/>
+      <c r="AB114" s="4" t="n"/>
+      <c r="AC114" s="4" t="n"/>
+      <c r="AD114" s="4" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="4" t="n"/>
-      <c r="B115" s="8" t="n"/>
-      <c r="C115" s="2" t="n"/>
-      <c r="D115" s="2" t="n"/>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-      <c r="H115" s="2" t="n"/>
-      <c r="I115" s="2" t="n"/>
-      <c r="J115" s="2" t="n"/>
-      <c r="K115" s="2" t="n"/>
-      <c r="L115" s="2" t="n"/>
-      <c r="M115" s="2" t="n"/>
-      <c r="N115" s="2" t="n"/>
-      <c r="O115" s="2" t="n"/>
-      <c r="P115" s="2" t="n"/>
-      <c r="Q115" s="2" t="n"/>
-      <c r="R115" s="2" t="n"/>
-      <c r="S115" s="2" t="n"/>
-      <c r="T115" s="2" t="n"/>
-      <c r="U115" s="2" t="n"/>
-      <c r="V115" s="2" t="n"/>
-      <c r="W115" s="2" t="n"/>
-      <c r="X115" s="2" t="n"/>
-      <c r="Y115" s="2" t="n"/>
-      <c r="Z115" s="2" t="n"/>
-      <c r="AA115" s="2" t="n"/>
-      <c r="AB115" s="2" t="n"/>
-      <c r="AC115" s="2" t="n"/>
-      <c r="AD115" s="2" t="n"/>
+      <c r="B115" s="4" t="n"/>
+      <c r="C115" s="4" t="n"/>
+      <c r="D115" s="4" t="n"/>
+      <c r="E115" s="4" t="n"/>
+      <c r="F115" s="4" t="n"/>
+      <c r="G115" s="4" t="n"/>
+      <c r="H115" s="4" t="n"/>
+      <c r="I115" s="4" t="n"/>
+      <c r="J115" s="4" t="n"/>
+      <c r="K115" s="4" t="n"/>
+      <c r="L115" s="4" t="n"/>
+      <c r="M115" s="4" t="n"/>
+      <c r="N115" s="4" t="n"/>
+      <c r="O115" s="4" t="n"/>
+      <c r="P115" s="4" t="n"/>
+      <c r="Q115" s="4" t="n"/>
+      <c r="R115" s="4" t="n"/>
+      <c r="S115" s="4" t="n"/>
+      <c r="T115" s="4" t="n"/>
+      <c r="U115" s="4" t="n"/>
+      <c r="V115" s="4" t="n"/>
+      <c r="W115" s="4" t="n"/>
+      <c r="X115" s="4" t="n"/>
+      <c r="Y115" s="4" t="n"/>
+      <c r="Z115" s="4" t="n"/>
+      <c r="AA115" s="4" t="n"/>
+      <c r="AB115" s="4" t="n"/>
+      <c r="AC115" s="4" t="n"/>
+      <c r="AD115" s="4" t="n"/>
     </row>
     <row r="116">
-      <c r="A116" s="9" t="inlineStr">
-        <is>
-          <t>embeddings</t>
-        </is>
-      </c>
-      <c r="B116" s="2" t="n"/>
-      <c r="C116" s="2" t="n"/>
-      <c r="D116" s="2" t="n"/>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-      <c r="H116" s="2" t="n"/>
-      <c r="I116" s="2" t="n"/>
-      <c r="J116" s="2" t="n"/>
-      <c r="K116" s="2" t="n"/>
-      <c r="L116" s="2" t="n"/>
-      <c r="M116" s="2" t="n"/>
-      <c r="N116" s="2" t="n"/>
-      <c r="O116" s="2" t="n"/>
-      <c r="P116" s="2" t="n"/>
-      <c r="Q116" s="2" t="n"/>
-      <c r="R116" s="2" t="n"/>
-      <c r="S116" s="2" t="n"/>
-      <c r="T116" s="2" t="n"/>
-      <c r="U116" s="2" t="n"/>
-      <c r="V116" s="2" t="n"/>
-      <c r="W116" s="2" t="n"/>
-      <c r="X116" s="2" t="n"/>
-      <c r="Y116" s="2" t="n"/>
-      <c r="Z116" s="2" t="n"/>
-      <c r="AA116" s="2" t="n"/>
-      <c r="AB116" s="2" t="n"/>
-      <c r="AC116" s="2" t="n"/>
-      <c r="AD116" s="2" t="n"/>
+      <c r="A116" s="4" t="n"/>
+      <c r="B116" s="4" t="n"/>
+      <c r="C116" s="4" t="n"/>
+      <c r="D116" s="4" t="n"/>
+      <c r="E116" s="4" t="n"/>
+      <c r="F116" s="4" t="n"/>
+      <c r="G116" s="4" t="n"/>
+      <c r="H116" s="4" t="n"/>
+      <c r="I116" s="4" t="n"/>
+      <c r="J116" s="4" t="n"/>
+      <c r="K116" s="4" t="n"/>
+      <c r="L116" s="4" t="n"/>
+      <c r="M116" s="4" t="n"/>
+      <c r="N116" s="4" t="n"/>
+      <c r="O116" s="4" t="n"/>
+      <c r="P116" s="4" t="n"/>
+      <c r="Q116" s="4" t="n"/>
+      <c r="R116" s="4" t="n"/>
+      <c r="S116" s="4" t="n"/>
+      <c r="T116" s="4" t="n"/>
+      <c r="U116" s="4" t="n"/>
+      <c r="V116" s="4" t="n"/>
+      <c r="W116" s="4" t="n"/>
+      <c r="X116" s="4" t="n"/>
+      <c r="Y116" s="4" t="n"/>
+      <c r="Z116" s="4" t="n"/>
+      <c r="AA116" s="4" t="n"/>
+      <c r="AB116" s="4" t="n"/>
+      <c r="AC116" s="4" t="n"/>
+      <c r="AD116" s="4" t="n"/>
     </row>
     <row r="117">
-      <c r="A117" s="4" t="inlineStr"/>
-      <c r="B117" s="5" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C117" s="5" t="n">
-        <v/>
-      </c>
-      <c r="D117" s="6" t="inlineStr"/>
-      <c r="E117" s="6" t="n"/>
-      <c r="F117" s="6" t="n"/>
-      <c r="G117" s="6" t="n"/>
-      <c r="H117" s="6" t="n"/>
-      <c r="I117" s="6" t="n"/>
-      <c r="J117" s="6" t="n"/>
-      <c r="K117" s="6" t="n"/>
-      <c r="L117" s="6" t="n"/>
-      <c r="M117" s="6" t="n"/>
-      <c r="N117" s="6" t="n"/>
-      <c r="O117" s="6" t="n"/>
-      <c r="P117" s="6" t="n"/>
-      <c r="Q117" s="6" t="n"/>
-      <c r="R117" s="6" t="n"/>
-      <c r="S117" s="6" t="n"/>
-      <c r="T117" s="6" t="n"/>
-      <c r="U117" s="6" t="n"/>
-      <c r="V117" s="6" t="n"/>
-      <c r="W117" s="6" t="n"/>
-      <c r="X117" s="6" t="n"/>
-      <c r="Y117" s="6" t="n"/>
-      <c r="Z117" s="6" t="n"/>
-      <c r="AA117" s="6" t="n"/>
-      <c r="AB117" s="6" t="n"/>
-      <c r="AC117" s="6" t="n"/>
-      <c r="AD117" s="6" t="n"/>
+      <c r="A117" s="4" t="n"/>
+      <c r="B117" s="4" t="n"/>
+      <c r="C117" s="4" t="n"/>
+      <c r="D117" s="4" t="n"/>
+      <c r="E117" s="4" t="n"/>
+      <c r="F117" s="4" t="n"/>
+      <c r="G117" s="4" t="n"/>
+      <c r="H117" s="4" t="n"/>
+      <c r="I117" s="4" t="n"/>
+      <c r="J117" s="4" t="n"/>
+      <c r="K117" s="4" t="n"/>
+      <c r="L117" s="4" t="n"/>
+      <c r="M117" s="4" t="n"/>
+      <c r="N117" s="4" t="n"/>
+      <c r="O117" s="4" t="n"/>
+      <c r="P117" s="4" t="n"/>
+      <c r="Q117" s="4" t="n"/>
+      <c r="R117" s="4" t="n"/>
+      <c r="S117" s="4" t="n"/>
+      <c r="T117" s="4" t="n"/>
+      <c r="U117" s="4" t="n"/>
+      <c r="V117" s="4" t="n"/>
+      <c r="W117" s="4" t="n"/>
+      <c r="X117" s="4" t="n"/>
+      <c r="Y117" s="4" t="n"/>
+      <c r="Z117" s="4" t="n"/>
+      <c r="AA117" s="4" t="n"/>
+      <c r="AB117" s="4" t="n"/>
+      <c r="AC117" s="4" t="n"/>
+      <c r="AD117" s="4" t="n"/>
     </row>
     <row r="118">
-      <c r="A118" s="4" t="inlineStr"/>
-      <c r="B118" s="5" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C118" s="5" t="n">
-        <v/>
-      </c>
-      <c r="D118" s="6" t="n"/>
-      <c r="E118" s="6" t="n"/>
-      <c r="F118" s="6" t="n"/>
-      <c r="G118" s="6" t="n"/>
-      <c r="H118" s="6" t="n"/>
-      <c r="I118" s="6" t="n"/>
-      <c r="J118" s="6" t="n"/>
-      <c r="K118" s="6" t="n"/>
-      <c r="L118" s="6" t="n"/>
-      <c r="M118" s="6" t="n"/>
-      <c r="N118" s="6" t="n"/>
-      <c r="O118" s="6" t="n"/>
-      <c r="P118" s="6" t="n"/>
-      <c r="Q118" s="6" t="n"/>
-      <c r="R118" s="6" t="n"/>
-      <c r="S118" s="6" t="n"/>
-      <c r="T118" s="6" t="n"/>
-      <c r="U118" s="6" t="n"/>
-      <c r="V118" s="6" t="n"/>
-      <c r="W118" s="6" t="n"/>
-      <c r="X118" s="6" t="n"/>
-      <c r="Y118" s="6" t="n"/>
-      <c r="Z118" s="6" t="n"/>
-      <c r="AA118" s="6" t="n"/>
-      <c r="AB118" s="6" t="n"/>
-      <c r="AC118" s="6" t="n"/>
-      <c r="AD118" s="6" t="n"/>
+      <c r="A118" s="4" t="n"/>
+      <c r="B118" s="4" t="n"/>
+      <c r="C118" s="4" t="n"/>
+      <c r="D118" s="4" t="n"/>
+      <c r="E118" s="4" t="n"/>
+      <c r="F118" s="4" t="n"/>
+      <c r="G118" s="4" t="n"/>
+      <c r="H118" s="4" t="n"/>
+      <c r="I118" s="4" t="n"/>
+      <c r="J118" s="4" t="n"/>
+      <c r="K118" s="4" t="n"/>
+      <c r="L118" s="4" t="n"/>
+      <c r="M118" s="4" t="n"/>
+      <c r="N118" s="4" t="n"/>
+      <c r="O118" s="4" t="n"/>
+      <c r="P118" s="4" t="n"/>
+      <c r="Q118" s="4" t="n"/>
+      <c r="R118" s="4" t="n"/>
+      <c r="S118" s="4" t="n"/>
+      <c r="T118" s="4" t="n"/>
+      <c r="U118" s="4" t="n"/>
+      <c r="V118" s="4" t="n"/>
+      <c r="W118" s="4" t="n"/>
+      <c r="X118" s="4" t="n"/>
+      <c r="Y118" s="4" t="n"/>
+      <c r="Z118" s="4" t="n"/>
+      <c r="AA118" s="4" t="n"/>
+      <c r="AB118" s="4" t="n"/>
+      <c r="AC118" s="4" t="n"/>
+      <c r="AD118" s="4" t="n"/>
     </row>
     <row r="119">
-      <c r="A119" s="4" t="inlineStr"/>
-      <c r="B119" s="5" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C119" s="5" t="n">
-        <v/>
-      </c>
-      <c r="D119" s="6" t="n"/>
-      <c r="E119" s="6" t="n"/>
-      <c r="F119" s="6" t="n"/>
-      <c r="G119" s="6" t="n"/>
-      <c r="H119" s="6" t="n"/>
-      <c r="I119" s="6" t="n"/>
-      <c r="J119" s="6" t="n"/>
-      <c r="K119" s="6" t="n"/>
-      <c r="L119" s="6" t="n"/>
-      <c r="M119" s="6" t="n"/>
-      <c r="N119" s="6" t="n"/>
-      <c r="O119" s="6" t="n"/>
-      <c r="P119" s="6" t="n"/>
-      <c r="Q119" s="6" t="n"/>
-      <c r="R119" s="6" t="n"/>
-      <c r="S119" s="6" t="n"/>
-      <c r="T119" s="6" t="n"/>
-      <c r="U119" s="6" t="n"/>
-      <c r="V119" s="6" t="n"/>
-      <c r="W119" s="6" t="n"/>
-      <c r="X119" s="6" t="n"/>
-      <c r="Y119" s="6" t="n"/>
-      <c r="Z119" s="6" t="n"/>
-      <c r="AA119" s="6" t="n"/>
-      <c r="AB119" s="6" t="n"/>
-      <c r="AC119" s="6" t="n"/>
-      <c r="AD119" s="6" t="n"/>
+      <c r="A119" s="4" t="n"/>
+      <c r="B119" s="4" t="n"/>
+      <c r="C119" s="4" t="n"/>
+      <c r="D119" s="4" t="n"/>
+      <c r="E119" s="4" t="n"/>
+      <c r="F119" s="4" t="n"/>
+      <c r="G119" s="4" t="n"/>
+      <c r="H119" s="4" t="n"/>
+      <c r="I119" s="4" t="n"/>
+      <c r="J119" s="4" t="n"/>
+      <c r="K119" s="4" t="n"/>
+      <c r="L119" s="4" t="n"/>
+      <c r="M119" s="4" t="n"/>
+      <c r="N119" s="4" t="n"/>
+      <c r="O119" s="4" t="n"/>
+      <c r="P119" s="4" t="n"/>
+      <c r="Q119" s="4" t="n"/>
+      <c r="R119" s="4" t="n"/>
+      <c r="S119" s="4" t="n"/>
+      <c r="T119" s="4" t="n"/>
+      <c r="U119" s="4" t="n"/>
+      <c r="V119" s="4" t="n"/>
+      <c r="W119" s="4" t="n"/>
+      <c r="X119" s="4" t="n"/>
+      <c r="Y119" s="4" t="n"/>
+      <c r="Z119" s="4" t="n"/>
+      <c r="AA119" s="4" t="n"/>
+      <c r="AB119" s="4" t="n"/>
+      <c r="AC119" s="4" t="n"/>
+      <c r="AD119" s="4" t="n"/>
     </row>
     <row r="120">
-      <c r="A120" s="4" t="inlineStr"/>
-      <c r="B120" s="5" t="inlineStr">
-        <is>
-          <t>vector</t>
-        </is>
-      </c>
-      <c r="C120" s="7" t="inlineStr"/>
-      <c r="D120" s="6" t="inlineStr"/>
-      <c r="E120" s="6" t="n"/>
-      <c r="F120" s="6" t="n"/>
-      <c r="G120" s="6" t="n"/>
-      <c r="H120" s="6" t="n"/>
-      <c r="I120" s="6" t="n"/>
-      <c r="J120" s="6" t="n"/>
-      <c r="K120" s="6" t="n"/>
-      <c r="L120" s="6" t="n"/>
-      <c r="M120" s="6" t="n"/>
-      <c r="N120" s="6" t="n"/>
-      <c r="O120" s="6" t="n"/>
-      <c r="P120" s="6" t="n"/>
-      <c r="Q120" s="6" t="n"/>
-      <c r="R120" s="6" t="n"/>
-      <c r="S120" s="6" t="n"/>
-      <c r="T120" s="6" t="n"/>
-      <c r="U120" s="6" t="n"/>
-      <c r="V120" s="6" t="n"/>
-      <c r="W120" s="6" t="n"/>
-      <c r="X120" s="6" t="n"/>
-      <c r="Y120" s="6" t="n"/>
-      <c r="Z120" s="6" t="n"/>
-      <c r="AA120" s="6" t="n"/>
-      <c r="AB120" s="6" t="n"/>
-      <c r="AC120" s="6" t="n"/>
-      <c r="AD120" s="6" t="n"/>
+      <c r="A120" s="4" t="n"/>
+      <c r="B120" s="4" t="n"/>
+      <c r="C120" s="4" t="n"/>
+      <c r="D120" s="4" t="n"/>
+      <c r="E120" s="4" t="n"/>
+      <c r="F120" s="4" t="n"/>
+      <c r="G120" s="4" t="n"/>
+      <c r="H120" s="4" t="n"/>
+      <c r="I120" s="4" t="n"/>
+      <c r="J120" s="4" t="n"/>
+      <c r="K120" s="4" t="n"/>
+      <c r="L120" s="4" t="n"/>
+      <c r="M120" s="4" t="n"/>
+      <c r="N120" s="4" t="n"/>
+      <c r="O120" s="4" t="n"/>
+      <c r="P120" s="4" t="n"/>
+      <c r="Q120" s="4" t="n"/>
+      <c r="R120" s="4" t="n"/>
+      <c r="S120" s="4" t="n"/>
+      <c r="T120" s="4" t="n"/>
+      <c r="U120" s="4" t="n"/>
+      <c r="V120" s="4" t="n"/>
+      <c r="W120" s="4" t="n"/>
+      <c r="X120" s="4" t="n"/>
+      <c r="Y120" s="4" t="n"/>
+      <c r="Z120" s="4" t="n"/>
+      <c r="AA120" s="4" t="n"/>
+      <c r="AB120" s="4" t="n"/>
+      <c r="AC120" s="4" t="n"/>
+      <c r="AD120" s="4" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="4" t="n"/>
-      <c r="B121" s="8" t="n"/>
-      <c r="C121" s="8" t="n"/>
-      <c r="D121" s="2" t="n"/>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-      <c r="H121" s="2" t="n"/>
-      <c r="I121" s="2" t="n"/>
-      <c r="J121" s="2" t="n"/>
-      <c r="K121" s="2" t="n"/>
-      <c r="L121" s="2" t="n"/>
-      <c r="M121" s="2" t="n"/>
-      <c r="N121" s="2" t="n"/>
-      <c r="O121" s="2" t="n"/>
-      <c r="P121" s="2" t="n"/>
-      <c r="Q121" s="2" t="n"/>
-      <c r="R121" s="2" t="n"/>
-      <c r="S121" s="2" t="n"/>
-      <c r="T121" s="2" t="n"/>
-      <c r="U121" s="2" t="n"/>
-      <c r="V121" s="2" t="n"/>
-      <c r="W121" s="2" t="n"/>
-      <c r="X121" s="2" t="n"/>
-      <c r="Y121" s="2" t="n"/>
-      <c r="Z121" s="2" t="n"/>
-      <c r="AA121" s="2" t="n"/>
-      <c r="AB121" s="2" t="n"/>
-      <c r="AC121" s="2" t="n"/>
-      <c r="AD121" s="2" t="n"/>
+      <c r="B121" s="4" t="n"/>
+      <c r="C121" s="4" t="n"/>
+      <c r="D121" s="4" t="n"/>
+      <c r="E121" s="4" t="n"/>
+      <c r="F121" s="4" t="n"/>
+      <c r="G121" s="4" t="n"/>
+      <c r="H121" s="4" t="n"/>
+      <c r="I121" s="4" t="n"/>
+      <c r="J121" s="4" t="n"/>
+      <c r="K121" s="4" t="n"/>
+      <c r="L121" s="4" t="n"/>
+      <c r="M121" s="4" t="n"/>
+      <c r="N121" s="4" t="n"/>
+      <c r="O121" s="4" t="n"/>
+      <c r="P121" s="4" t="n"/>
+      <c r="Q121" s="4" t="n"/>
+      <c r="R121" s="4" t="n"/>
+      <c r="S121" s="4" t="n"/>
+      <c r="T121" s="4" t="n"/>
+      <c r="U121" s="4" t="n"/>
+      <c r="V121" s="4" t="n"/>
+      <c r="W121" s="4" t="n"/>
+      <c r="X121" s="4" t="n"/>
+      <c r="Y121" s="4" t="n"/>
+      <c r="Z121" s="4" t="n"/>
+      <c r="AA121" s="4" t="n"/>
+      <c r="AB121" s="4" t="n"/>
+      <c r="AC121" s="4" t="n"/>
+      <c r="AD121" s="4" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="4" t="n"/>
@@ -5623,326 +5572,6 @@
       <c r="AC141" s="4" t="n"/>
       <c r="AD141" s="4" t="n"/>
     </row>
-    <row r="142">
-      <c r="A142" s="4" t="n"/>
-      <c r="B142" s="4" t="n"/>
-      <c r="C142" s="4" t="n"/>
-      <c r="D142" s="4" t="n"/>
-      <c r="E142" s="4" t="n"/>
-      <c r="F142" s="4" t="n"/>
-      <c r="G142" s="4" t="n"/>
-      <c r="H142" s="4" t="n"/>
-      <c r="I142" s="4" t="n"/>
-      <c r="J142" s="4" t="n"/>
-      <c r="K142" s="4" t="n"/>
-      <c r="L142" s="4" t="n"/>
-      <c r="M142" s="4" t="n"/>
-      <c r="N142" s="4" t="n"/>
-      <c r="O142" s="4" t="n"/>
-      <c r="P142" s="4" t="n"/>
-      <c r="Q142" s="4" t="n"/>
-      <c r="R142" s="4" t="n"/>
-      <c r="S142" s="4" t="n"/>
-      <c r="T142" s="4" t="n"/>
-      <c r="U142" s="4" t="n"/>
-      <c r="V142" s="4" t="n"/>
-      <c r="W142" s="4" t="n"/>
-      <c r="X142" s="4" t="n"/>
-      <c r="Y142" s="4" t="n"/>
-      <c r="Z142" s="4" t="n"/>
-      <c r="AA142" s="4" t="n"/>
-      <c r="AB142" s="4" t="n"/>
-      <c r="AC142" s="4" t="n"/>
-      <c r="AD142" s="4" t="n"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="4" t="n"/>
-      <c r="B143" s="4" t="n"/>
-      <c r="C143" s="4" t="n"/>
-      <c r="D143" s="4" t="n"/>
-      <c r="E143" s="4" t="n"/>
-      <c r="F143" s="4" t="n"/>
-      <c r="G143" s="4" t="n"/>
-      <c r="H143" s="4" t="n"/>
-      <c r="I143" s="4" t="n"/>
-      <c r="J143" s="4" t="n"/>
-      <c r="K143" s="4" t="n"/>
-      <c r="L143" s="4" t="n"/>
-      <c r="M143" s="4" t="n"/>
-      <c r="N143" s="4" t="n"/>
-      <c r="O143" s="4" t="n"/>
-      <c r="P143" s="4" t="n"/>
-      <c r="Q143" s="4" t="n"/>
-      <c r="R143" s="4" t="n"/>
-      <c r="S143" s="4" t="n"/>
-      <c r="T143" s="4" t="n"/>
-      <c r="U143" s="4" t="n"/>
-      <c r="V143" s="4" t="n"/>
-      <c r="W143" s="4" t="n"/>
-      <c r="X143" s="4" t="n"/>
-      <c r="Y143" s="4" t="n"/>
-      <c r="Z143" s="4" t="n"/>
-      <c r="AA143" s="4" t="n"/>
-      <c r="AB143" s="4" t="n"/>
-      <c r="AC143" s="4" t="n"/>
-      <c r="AD143" s="4" t="n"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="4" t="n"/>
-      <c r="B144" s="4" t="n"/>
-      <c r="C144" s="4" t="n"/>
-      <c r="D144" s="4" t="n"/>
-      <c r="E144" s="4" t="n"/>
-      <c r="F144" s="4" t="n"/>
-      <c r="G144" s="4" t="n"/>
-      <c r="H144" s="4" t="n"/>
-      <c r="I144" s="4" t="n"/>
-      <c r="J144" s="4" t="n"/>
-      <c r="K144" s="4" t="n"/>
-      <c r="L144" s="4" t="n"/>
-      <c r="M144" s="4" t="n"/>
-      <c r="N144" s="4" t="n"/>
-      <c r="O144" s="4" t="n"/>
-      <c r="P144" s="4" t="n"/>
-      <c r="Q144" s="4" t="n"/>
-      <c r="R144" s="4" t="n"/>
-      <c r="S144" s="4" t="n"/>
-      <c r="T144" s="4" t="n"/>
-      <c r="U144" s="4" t="n"/>
-      <c r="V144" s="4" t="n"/>
-      <c r="W144" s="4" t="n"/>
-      <c r="X144" s="4" t="n"/>
-      <c r="Y144" s="4" t="n"/>
-      <c r="Z144" s="4" t="n"/>
-      <c r="AA144" s="4" t="n"/>
-      <c r="AB144" s="4" t="n"/>
-      <c r="AC144" s="4" t="n"/>
-      <c r="AD144" s="4" t="n"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="4" t="n"/>
-      <c r="B145" s="4" t="n"/>
-      <c r="C145" s="4" t="n"/>
-      <c r="D145" s="4" t="n"/>
-      <c r="E145" s="4" t="n"/>
-      <c r="F145" s="4" t="n"/>
-      <c r="G145" s="4" t="n"/>
-      <c r="H145" s="4" t="n"/>
-      <c r="I145" s="4" t="n"/>
-      <c r="J145" s="4" t="n"/>
-      <c r="K145" s="4" t="n"/>
-      <c r="L145" s="4" t="n"/>
-      <c r="M145" s="4" t="n"/>
-      <c r="N145" s="4" t="n"/>
-      <c r="O145" s="4" t="n"/>
-      <c r="P145" s="4" t="n"/>
-      <c r="Q145" s="4" t="n"/>
-      <c r="R145" s="4" t="n"/>
-      <c r="S145" s="4" t="n"/>
-      <c r="T145" s="4" t="n"/>
-      <c r="U145" s="4" t="n"/>
-      <c r="V145" s="4" t="n"/>
-      <c r="W145" s="4" t="n"/>
-      <c r="X145" s="4" t="n"/>
-      <c r="Y145" s="4" t="n"/>
-      <c r="Z145" s="4" t="n"/>
-      <c r="AA145" s="4" t="n"/>
-      <c r="AB145" s="4" t="n"/>
-      <c r="AC145" s="4" t="n"/>
-      <c r="AD145" s="4" t="n"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="4" t="n"/>
-      <c r="B146" s="4" t="n"/>
-      <c r="C146" s="4" t="n"/>
-      <c r="D146" s="4" t="n"/>
-      <c r="E146" s="4" t="n"/>
-      <c r="F146" s="4" t="n"/>
-      <c r="G146" s="4" t="n"/>
-      <c r="H146" s="4" t="n"/>
-      <c r="I146" s="4" t="n"/>
-      <c r="J146" s="4" t="n"/>
-      <c r="K146" s="4" t="n"/>
-      <c r="L146" s="4" t="n"/>
-      <c r="M146" s="4" t="n"/>
-      <c r="N146" s="4" t="n"/>
-      <c r="O146" s="4" t="n"/>
-      <c r="P146" s="4" t="n"/>
-      <c r="Q146" s="4" t="n"/>
-      <c r="R146" s="4" t="n"/>
-      <c r="S146" s="4" t="n"/>
-      <c r="T146" s="4" t="n"/>
-      <c r="U146" s="4" t="n"/>
-      <c r="V146" s="4" t="n"/>
-      <c r="W146" s="4" t="n"/>
-      <c r="X146" s="4" t="n"/>
-      <c r="Y146" s="4" t="n"/>
-      <c r="Z146" s="4" t="n"/>
-      <c r="AA146" s="4" t="n"/>
-      <c r="AB146" s="4" t="n"/>
-      <c r="AC146" s="4" t="n"/>
-      <c r="AD146" s="4" t="n"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="4" t="n"/>
-      <c r="B147" s="4" t="n"/>
-      <c r="C147" s="4" t="n"/>
-      <c r="D147" s="4" t="n"/>
-      <c r="E147" s="4" t="n"/>
-      <c r="F147" s="4" t="n"/>
-      <c r="G147" s="4" t="n"/>
-      <c r="H147" s="4" t="n"/>
-      <c r="I147" s="4" t="n"/>
-      <c r="J147" s="4" t="n"/>
-      <c r="K147" s="4" t="n"/>
-      <c r="L147" s="4" t="n"/>
-      <c r="M147" s="4" t="n"/>
-      <c r="N147" s="4" t="n"/>
-      <c r="O147" s="4" t="n"/>
-      <c r="P147" s="4" t="n"/>
-      <c r="Q147" s="4" t="n"/>
-      <c r="R147" s="4" t="n"/>
-      <c r="S147" s="4" t="n"/>
-      <c r="T147" s="4" t="n"/>
-      <c r="U147" s="4" t="n"/>
-      <c r="V147" s="4" t="n"/>
-      <c r="W147" s="4" t="n"/>
-      <c r="X147" s="4" t="n"/>
-      <c r="Y147" s="4" t="n"/>
-      <c r="Z147" s="4" t="n"/>
-      <c r="AA147" s="4" t="n"/>
-      <c r="AB147" s="4" t="n"/>
-      <c r="AC147" s="4" t="n"/>
-      <c r="AD147" s="4" t="n"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="4" t="n"/>
-      <c r="B148" s="4" t="n"/>
-      <c r="C148" s="4" t="n"/>
-      <c r="D148" s="4" t="n"/>
-      <c r="E148" s="4" t="n"/>
-      <c r="F148" s="4" t="n"/>
-      <c r="G148" s="4" t="n"/>
-      <c r="H148" s="4" t="n"/>
-      <c r="I148" s="4" t="n"/>
-      <c r="J148" s="4" t="n"/>
-      <c r="K148" s="4" t="n"/>
-      <c r="L148" s="4" t="n"/>
-      <c r="M148" s="4" t="n"/>
-      <c r="N148" s="4" t="n"/>
-      <c r="O148" s="4" t="n"/>
-      <c r="P148" s="4" t="n"/>
-      <c r="Q148" s="4" t="n"/>
-      <c r="R148" s="4" t="n"/>
-      <c r="S148" s="4" t="n"/>
-      <c r="T148" s="4" t="n"/>
-      <c r="U148" s="4" t="n"/>
-      <c r="V148" s="4" t="n"/>
-      <c r="W148" s="4" t="n"/>
-      <c r="X148" s="4" t="n"/>
-      <c r="Y148" s="4" t="n"/>
-      <c r="Z148" s="4" t="n"/>
-      <c r="AA148" s="4" t="n"/>
-      <c r="AB148" s="4" t="n"/>
-      <c r="AC148" s="4" t="n"/>
-      <c r="AD148" s="4" t="n"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="4" t="n"/>
-      <c r="B149" s="4" t="n"/>
-      <c r="C149" s="4" t="n"/>
-      <c r="D149" s="4" t="n"/>
-      <c r="E149" s="4" t="n"/>
-      <c r="F149" s="4" t="n"/>
-      <c r="G149" s="4" t="n"/>
-      <c r="H149" s="4" t="n"/>
-      <c r="I149" s="4" t="n"/>
-      <c r="J149" s="4" t="n"/>
-      <c r="K149" s="4" t="n"/>
-      <c r="L149" s="4" t="n"/>
-      <c r="M149" s="4" t="n"/>
-      <c r="N149" s="4" t="n"/>
-      <c r="O149" s="4" t="n"/>
-      <c r="P149" s="4" t="n"/>
-      <c r="Q149" s="4" t="n"/>
-      <c r="R149" s="4" t="n"/>
-      <c r="S149" s="4" t="n"/>
-      <c r="T149" s="4" t="n"/>
-      <c r="U149" s="4" t="n"/>
-      <c r="V149" s="4" t="n"/>
-      <c r="W149" s="4" t="n"/>
-      <c r="X149" s="4" t="n"/>
-      <c r="Y149" s="4" t="n"/>
-      <c r="Z149" s="4" t="n"/>
-      <c r="AA149" s="4" t="n"/>
-      <c r="AB149" s="4" t="n"/>
-      <c r="AC149" s="4" t="n"/>
-      <c r="AD149" s="4" t="n"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="4" t="n"/>
-      <c r="B150" s="4" t="n"/>
-      <c r="C150" s="4" t="n"/>
-      <c r="D150" s="4" t="n"/>
-      <c r="E150" s="4" t="n"/>
-      <c r="F150" s="4" t="n"/>
-      <c r="G150" s="4" t="n"/>
-      <c r="H150" s="4" t="n"/>
-      <c r="I150" s="4" t="n"/>
-      <c r="J150" s="4" t="n"/>
-      <c r="K150" s="4" t="n"/>
-      <c r="L150" s="4" t="n"/>
-      <c r="M150" s="4" t="n"/>
-      <c r="N150" s="4" t="n"/>
-      <c r="O150" s="4" t="n"/>
-      <c r="P150" s="4" t="n"/>
-      <c r="Q150" s="4" t="n"/>
-      <c r="R150" s="4" t="n"/>
-      <c r="S150" s="4" t="n"/>
-      <c r="T150" s="4" t="n"/>
-      <c r="U150" s="4" t="n"/>
-      <c r="V150" s="4" t="n"/>
-      <c r="W150" s="4" t="n"/>
-      <c r="X150" s="4" t="n"/>
-      <c r="Y150" s="4" t="n"/>
-      <c r="Z150" s="4" t="n"/>
-      <c r="AA150" s="4" t="n"/>
-      <c r="AB150" s="4" t="n"/>
-      <c r="AC150" s="4" t="n"/>
-      <c r="AD150" s="4" t="n"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="4" t="n"/>
-      <c r="B151" s="4" t="n"/>
-      <c r="C151" s="4" t="n"/>
-      <c r="D151" s="4" t="n"/>
-      <c r="E151" s="4" t="n"/>
-      <c r="F151" s="4" t="n"/>
-      <c r="G151" s="4" t="n"/>
-      <c r="H151" s="4" t="n"/>
-      <c r="I151" s="4" t="n"/>
-      <c r="J151" s="4" t="n"/>
-      <c r="K151" s="4" t="n"/>
-      <c r="L151" s="4" t="n"/>
-      <c r="M151" s="4" t="n"/>
-      <c r="N151" s="4" t="n"/>
-      <c r="O151" s="4" t="n"/>
-      <c r="P151" s="4" t="n"/>
-      <c r="Q151" s="4" t="n"/>
-      <c r="R151" s="4" t="n"/>
-      <c r="S151" s="4" t="n"/>
-      <c r="T151" s="4" t="n"/>
-      <c r="U151" s="4" t="n"/>
-      <c r="V151" s="4" t="n"/>
-      <c r="W151" s="4" t="n"/>
-      <c r="X151" s="4" t="n"/>
-      <c r="Y151" s="4" t="n"/>
-      <c r="Z151" s="4" t="n"/>
-      <c r="AA151" s="4" t="n"/>
-      <c r="AB151" s="4" t="n"/>
-      <c r="AC151" s="4" t="n"/>
-      <c r="AD151" s="4" t="n"/>
-    </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_sheets/Video_metadata.xlsx
+++ b/excel_sheets/Video_metadata.xlsx
@@ -499,7 +499,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>video type metadata version 0.1.0</t>
+          <t>metadata_type: video, metadata_type_version: 0.1.0</t>
         </is>
       </c>
       <c r="D1" s="2" t="n"/>
